--- a/Code/Results/Cases/Case_0_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_94/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.44200600541746</v>
+        <v>13.62572784085251</v>
       </c>
       <c r="D2">
-        <v>5.302163593210799</v>
+        <v>8.862755317428553</v>
       </c>
       <c r="E2">
-        <v>9.058277617299542</v>
+        <v>14.33113577209335</v>
       </c>
       <c r="F2">
-        <v>32.21316004948925</v>
+        <v>37.46470187668108</v>
       </c>
       <c r="G2">
-        <v>43.80131459912858</v>
+        <v>42.83247596206232</v>
       </c>
       <c r="H2">
-        <v>12.40763325983296</v>
+        <v>17.26068741337964</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.219460977348484</v>
+        <v>10.70174230392222</v>
       </c>
       <c r="L2">
-        <v>5.414321791248673</v>
+        <v>9.757431744702671</v>
       </c>
       <c r="O2">
-        <v>23.58573006642875</v>
+        <v>28.31248297128687</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.0394566888042</v>
+        <v>13.59124863422232</v>
       </c>
       <c r="D3">
-        <v>5.250735264697757</v>
+        <v>8.873921610170257</v>
       </c>
       <c r="E3">
-        <v>8.895016624686148</v>
+        <v>14.34229924205262</v>
       </c>
       <c r="F3">
-        <v>30.68291721625243</v>
+        <v>37.26013579872049</v>
       </c>
       <c r="G3">
-        <v>41.29152894667249</v>
+        <v>42.33423386470002</v>
       </c>
       <c r="H3">
-        <v>12.00030844645388</v>
+        <v>17.23884865881928</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.182425846335151</v>
+        <v>10.71951035084092</v>
       </c>
       <c r="L3">
-        <v>5.428125307863767</v>
+        <v>9.775400896148057</v>
       </c>
       <c r="O3">
-        <v>22.51674678442874</v>
+        <v>28.18243555185088</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.791660634131786</v>
+        <v>13.57300577819367</v>
       </c>
       <c r="D4">
-        <v>5.221388355340079</v>
+        <v>8.881897797227888</v>
       </c>
       <c r="E4">
-        <v>8.798748371888559</v>
+        <v>14.35144590203804</v>
       </c>
       <c r="F4">
-        <v>29.72926528878308</v>
+        <v>37.14330426916216</v>
       </c>
       <c r="G4">
-        <v>39.70638722513657</v>
+        <v>42.03776962370883</v>
       </c>
       <c r="H4">
-        <v>11.7521836603312</v>
+        <v>17.22888948356966</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.162651452003812</v>
+        <v>10.73176849844094</v>
       </c>
       <c r="L4">
-        <v>5.438378606226622</v>
+        <v>9.787315083032475</v>
       </c>
       <c r="O4">
-        <v>21.85274882137718</v>
+        <v>28.10908694031794</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.690655922661051</v>
+        <v>13.56631267829636</v>
       </c>
       <c r="D5">
-        <v>5.209986343063886</v>
+        <v>8.885430033876764</v>
       </c>
       <c r="E5">
-        <v>8.760533188154643</v>
+        <v>14.35574987205515</v>
       </c>
       <c r="F5">
-        <v>29.33759736845401</v>
+        <v>37.09793849220998</v>
       </c>
       <c r="G5">
-        <v>39.04995474315947</v>
+        <v>41.9194764728114</v>
       </c>
       <c r="H5">
-        <v>11.65168182296696</v>
+        <v>17.22570137271192</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.155323858391356</v>
+        <v>10.73710307738097</v>
       </c>
       <c r="L5">
-        <v>5.442996644318034</v>
+        <v>9.792392179752357</v>
       </c>
       <c r="O5">
-        <v>21.58058979174571</v>
+        <v>28.08085364041314</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.673886740236135</v>
+        <v>13.56524617732769</v>
       </c>
       <c r="D6">
-        <v>5.208126572056906</v>
+        <v>8.886033589904891</v>
       </c>
       <c r="E6">
-        <v>8.754249306317821</v>
+        <v>14.35649937399978</v>
       </c>
       <c r="F6">
-        <v>29.27239313831815</v>
+        <v>37.09054211389156</v>
       </c>
       <c r="G6">
-        <v>38.94034315562688</v>
+        <v>41.89999007353505</v>
       </c>
       <c r="H6">
-        <v>11.63503397686857</v>
+        <v>17.22522462595816</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.154150800513334</v>
+        <v>10.73800937736525</v>
       </c>
       <c r="L6">
-        <v>5.443789816596435</v>
+        <v>9.793248646511318</v>
       </c>
       <c r="O6">
-        <v>21.53531401887557</v>
+        <v>28.07626619277322</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9.790298368833021</v>
+        <v>13.57291250648725</v>
       </c>
       <c r="D7">
-        <v>5.221232333590775</v>
+        <v>8.88194429261339</v>
       </c>
       <c r="E7">
-        <v>8.798228859849718</v>
+        <v>14.35150161192673</v>
       </c>
       <c r="F7">
-        <v>29.7239947456068</v>
+        <v>37.14268331700421</v>
       </c>
       <c r="G7">
-        <v>39.69757582481007</v>
+        <v>42.03616390314618</v>
       </c>
       <c r="H7">
-        <v>11.75082562601634</v>
+        <v>17.22884296042276</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.162549691256562</v>
+        <v>10.73183906845057</v>
       </c>
       <c r="L7">
-        <v>5.438439115676672</v>
+        <v>9.787382655234669</v>
       </c>
       <c r="O7">
-        <v>21.84908426917976</v>
+        <v>28.10869944022895</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>10.30341260651442</v>
+        <v>13.61323493729683</v>
       </c>
       <c r="D8">
-        <v>5.283966137916762</v>
+        <v>8.866373138898711</v>
       </c>
       <c r="E8">
-        <v>9.001169883833937</v>
+        <v>14.3345093573034</v>
       </c>
       <c r="F8">
-        <v>31.68872447563822</v>
+        <v>37.39237054819648</v>
       </c>
       <c r="G8">
-        <v>42.94542421052803</v>
+        <v>42.65880465962623</v>
       </c>
       <c r="H8">
-        <v>12.26684384653306</v>
+        <v>17.25244325448842</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.206066835205821</v>
+        <v>10.70758896840129</v>
       </c>
       <c r="L8">
-        <v>5.418707734371289</v>
+        <v>9.763444897773969</v>
       </c>
       <c r="O8">
-        <v>23.2189212907222</v>
+        <v>28.26630730001701</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>11.29960326946413</v>
+        <v>13.71529058171047</v>
       </c>
       <c r="D9">
-        <v>5.424831762202022</v>
+        <v>8.844714389750035</v>
       </c>
       <c r="E9">
-        <v>9.429977806100389</v>
+        <v>14.31936133740965</v>
       </c>
       <c r="F9">
-        <v>35.41242475208291</v>
+        <v>37.94978392962692</v>
       </c>
       <c r="G9">
-        <v>48.9445909731021</v>
+        <v>43.94845170283354</v>
       </c>
       <c r="H9">
-        <v>13.28992743414713</v>
+        <v>17.32594814660332</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.315603039792776</v>
+        <v>10.67072554505185</v>
       </c>
       <c r="L9">
-        <v>5.394468882158999</v>
+        <v>9.723475175503429</v>
       </c>
       <c r="O9">
-        <v>25.83212658205008</v>
+        <v>28.62588138305022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.019878074593</v>
+        <v>13.80390930595297</v>
       </c>
       <c r="D10">
-        <v>5.539402048628112</v>
+        <v>8.834197609021</v>
       </c>
       <c r="E10">
-        <v>9.762961202311068</v>
+        <v>14.31928596505051</v>
       </c>
       <c r="F10">
-        <v>38.05200816967422</v>
+        <v>38.39796505636173</v>
       </c>
       <c r="G10">
-        <v>53.10979255682041</v>
+        <v>44.92898426115374</v>
       </c>
       <c r="H10">
-        <v>14.04335559915624</v>
+        <v>17.39631425799097</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.411767893383971</v>
+        <v>10.65014734746838</v>
       </c>
       <c r="L10">
-        <v>5.385983561292875</v>
+        <v>9.698334533188333</v>
       </c>
       <c r="O10">
-        <v>27.69482688852069</v>
+        <v>28.91926276991265</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.34422056201342</v>
+        <v>13.84709189678689</v>
       </c>
       <c r="D11">
-        <v>5.593971880627906</v>
+        <v>8.83058104224229</v>
       </c>
       <c r="E11">
-        <v>9.918194694137023</v>
+        <v>14.32164344846577</v>
       </c>
       <c r="F11">
-        <v>39.22981632176461</v>
+        <v>38.6096184240628</v>
       </c>
       <c r="G11">
-        <v>54.9508497213157</v>
+        <v>45.38031206323657</v>
       </c>
       <c r="H11">
-        <v>14.3857402638118</v>
+        <v>17.43181581195756</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.45913194842932</v>
+        <v>10.64219537716486</v>
       </c>
       <c r="L11">
-        <v>5.384269087898238</v>
+        <v>9.687809496925768</v>
       </c>
       <c r="O11">
-        <v>28.52820565053145</v>
+        <v>29.05869084702694</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.46652090672742</v>
+        <v>13.86384765265519</v>
       </c>
       <c r="D12">
-        <v>5.614992395810807</v>
+        <v>8.829379038811565</v>
       </c>
       <c r="E12">
-        <v>9.977509686982149</v>
+        <v>14.32287906416177</v>
       </c>
       <c r="F12">
-        <v>39.672440696314</v>
+        <v>38.69082727827905</v>
       </c>
       <c r="G12">
-        <v>55.64032182090726</v>
+        <v>45.55181696055553</v>
       </c>
       <c r="H12">
-        <v>14.51530130303745</v>
+        <v>17.44575508117034</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.477605864577695</v>
+        <v>10.63938650960057</v>
       </c>
       <c r="L12">
-        <v>5.383939282378588</v>
+        <v>9.683954600182055</v>
       </c>
       <c r="O12">
-        <v>28.84171073771495</v>
+        <v>29.11231200333798</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.44020502806096</v>
+        <v>13.86022121028751</v>
       </c>
       <c r="D13">
-        <v>5.610449347312607</v>
+        <v>8.829630468129297</v>
       </c>
       <c r="E13">
-        <v>9.964711598100207</v>
+        <v>14.32259772063713</v>
       </c>
       <c r="F13">
-        <v>39.57726482599364</v>
+        <v>38.67329127754634</v>
       </c>
       <c r="G13">
-        <v>55.49217250416516</v>
+        <v>45.51485633245254</v>
       </c>
       <c r="H13">
-        <v>14.48740259807948</v>
+        <v>17.44273107786235</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.473602942005892</v>
+        <v>10.63998245347786</v>
       </c>
       <c r="L13">
-        <v>5.383995922886881</v>
+        <v>9.684779013963956</v>
       </c>
       <c r="O13">
-        <v>28.77428474456867</v>
+        <v>29.10072771395284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.35429291822716</v>
+        <v>13.84846237205786</v>
       </c>
       <c r="D14">
-        <v>5.595694090525718</v>
+        <v>8.830478797838284</v>
       </c>
       <c r="E14">
-        <v>9.9230639580157</v>
+        <v>14.32173823791998</v>
       </c>
       <c r="F14">
-        <v>39.26629939629625</v>
+        <v>38.61627861159096</v>
       </c>
       <c r="G14">
-        <v>55.00772675212288</v>
+        <v>45.39441083596205</v>
       </c>
       <c r="H14">
-        <v>14.39640135678566</v>
+        <v>17.43295271075668</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.460640915762071</v>
+        <v>10.64196023573304</v>
       </c>
       <c r="L14">
-        <v>5.384235487426714</v>
+        <v>9.687489734858824</v>
       </c>
       <c r="O14">
-        <v>28.55403974618518</v>
+        <v>29.06308601017928</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.30160039941543</v>
+        <v>13.84131200150168</v>
       </c>
       <c r="D15">
-        <v>5.586702566262054</v>
+        <v>8.83102022725474</v>
       </c>
       <c r="E15">
-        <v>9.897622598801332</v>
+        <v>14.32125640013919</v>
       </c>
       <c r="F15">
-        <v>39.07538179447308</v>
+        <v>38.58149305073956</v>
       </c>
       <c r="G15">
-        <v>54.70998991468578</v>
+        <v>45.32070743187458</v>
       </c>
       <c r="H15">
-        <v>14.34064748964302</v>
+        <v>17.4270275175376</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.452771939269579</v>
+        <v>10.64319803084871</v>
       </c>
       <c r="L15">
-        <v>5.384424164042261</v>
+        <v>9.689167140311811</v>
       </c>
       <c r="O15">
-        <v>28.41886163489962</v>
+        <v>29.04013545344816</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>11.99861061184579</v>
+        <v>13.80114419290252</v>
       </c>
       <c r="D16">
-        <v>5.535885398849361</v>
+        <v>8.834457422766041</v>
       </c>
       <c r="E16">
-        <v>9.752891079600046</v>
+        <v>14.31917994096706</v>
       </c>
       <c r="F16">
-        <v>37.97456486373362</v>
+        <v>38.38428456588805</v>
       </c>
       <c r="G16">
-        <v>52.98839444879644</v>
+        <v>44.89958124957404</v>
       </c>
       <c r="H16">
-        <v>14.02096884797145</v>
+        <v>17.39406386747872</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.408746849542997</v>
+        <v>10.65069536131443</v>
       </c>
       <c r="L16">
-        <v>5.386139693740026</v>
+        <v>9.699040679950883</v>
       </c>
       <c r="O16">
-        <v>27.64007547973869</v>
+        <v>28.91026791198709</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>11.81184981937822</v>
+        <v>13.77723115553592</v>
       </c>
       <c r="D17">
-        <v>5.505340878539723</v>
+        <v>8.836864812886517</v>
       </c>
       <c r="E17">
-        <v>9.665057705300475</v>
+        <v>14.31851799987657</v>
       </c>
       <c r="F17">
-        <v>37.29328752867155</v>
+        <v>38.26525429078877</v>
       </c>
       <c r="G17">
-        <v>51.91848296403566</v>
+        <v>44.64247014623285</v>
       </c>
       <c r="H17">
-        <v>13.82473024311433</v>
+        <v>17.37473160250477</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.382677945585444</v>
+        <v>10.6556554701805</v>
       </c>
       <c r="L17">
-        <v>5.387749149539212</v>
+        <v>9.705330983097641</v>
       </c>
       <c r="O17">
-        <v>27.15867206918447</v>
+        <v>28.83210214360567</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>11.7041195133653</v>
+        <v>13.763747689522</v>
       </c>
       <c r="D18">
-        <v>5.488002949218608</v>
+        <v>8.838359402522299</v>
       </c>
       <c r="E18">
-        <v>9.614892258087055</v>
+        <v>14.31836246696413</v>
       </c>
       <c r="F18">
-        <v>36.89927508883959</v>
+        <v>38.19752649068062</v>
       </c>
       <c r="G18">
-        <v>51.29803441858331</v>
+        <v>44.4950931443814</v>
       </c>
       <c r="H18">
-        <v>13.7118270764843</v>
+        <v>17.36394127360017</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.368023232423894</v>
+        <v>10.65864104749174</v>
       </c>
       <c r="L18">
-        <v>5.388876117010608</v>
+        <v>9.709034822654331</v>
       </c>
       <c r="O18">
-        <v>26.88046719356531</v>
+        <v>28.78770716343045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>11.66759222402448</v>
+        <v>13.75922917870525</v>
       </c>
       <c r="D19">
-        <v>5.482172109640012</v>
+        <v>8.838884335232633</v>
       </c>
       <c r="E19">
-        <v>9.597968240011427</v>
+        <v>14.31834851326142</v>
       </c>
       <c r="F19">
-        <v>36.76550207451034</v>
+        <v>38.17472302161068</v>
       </c>
       <c r="G19">
-        <v>51.08709223181109</v>
+        <v>44.44528578053129</v>
       </c>
       <c r="H19">
-        <v>13.67359609812295</v>
+        <v>17.36034456122506</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.363119170127026</v>
+        <v>10.65967470367349</v>
       </c>
       <c r="L19">
-        <v>5.389291934568884</v>
+        <v>9.710303630838956</v>
       </c>
       <c r="O19">
-        <v>26.78604896259046</v>
+        <v>28.77277368737875</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>11.83176333505635</v>
+        <v>13.77974878931563</v>
       </c>
       <c r="D20">
-        <v>5.508568518261622</v>
+        <v>8.836597168198072</v>
       </c>
       <c r="E20">
-        <v>9.674371160465885</v>
+        <v>14.31856516455171</v>
       </c>
       <c r="F20">
-        <v>37.36603503224242</v>
+        <v>38.27784957978065</v>
       </c>
       <c r="G20">
-        <v>52.03290105174824</v>
+        <v>44.66978882063506</v>
       </c>
       <c r="H20">
-        <v>13.84562384190159</v>
+        <v>17.37675554200241</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.385417769417876</v>
+        <v>10.65511373079685</v>
       </c>
       <c r="L20">
-        <v>5.387556915072084</v>
+        <v>9.704652489920079</v>
       </c>
       <c r="O20">
-        <v>27.21005496975103</v>
+        <v>28.8403649125191</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.3795417935409</v>
+        <v>13.85190535474515</v>
       </c>
       <c r="D21">
-        <v>5.600018369598864</v>
+        <v>8.830225079856739</v>
       </c>
       <c r="E21">
-        <v>9.935282504379488</v>
+        <v>14.32198139212292</v>
       </c>
       <c r="F21">
-        <v>39.3577297095579</v>
+        <v>38.6329963051614</v>
       </c>
       <c r="G21">
-        <v>55.15022839242305</v>
+        <v>45.42977368428577</v>
       </c>
       <c r="H21">
-        <v>14.42313338012287</v>
+        <v>17.43581145843749</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.464433422220417</v>
+        <v>10.6413738230912</v>
       </c>
       <c r="L21">
-        <v>5.384156361383854</v>
+        <v>9.686689986092652</v>
       </c>
       <c r="O21">
-        <v>28.61878771164456</v>
+        <v>29.07412025053699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.7345017198091</v>
+        <v>13.90141074261738</v>
       </c>
       <c r="D22">
-        <v>5.66186412891783</v>
+        <v>8.827036734603782</v>
       </c>
       <c r="E22">
-        <v>10.10890018198322</v>
+        <v>14.32621210263082</v>
       </c>
       <c r="F22">
-        <v>40.63969084771698</v>
+        <v>38.87125753551988</v>
       </c>
       <c r="G22">
-        <v>57.14280196234017</v>
+        <v>45.92987274775989</v>
       </c>
       <c r="H22">
-        <v>14.8000236723422</v>
+        <v>17.47729322848912</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.51922092806996</v>
+        <v>10.63357343013889</v>
       </c>
       <c r="L22">
-        <v>5.383801441176645</v>
+        <v>9.67571213245432</v>
       </c>
       <c r="O22">
-        <v>29.52737166985462</v>
+        <v>29.23167117122135</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.54534145024311</v>
+        <v>13.87477723634493</v>
       </c>
       <c r="D23">
-        <v>5.628664317875988</v>
+        <v>8.828649230142746</v>
       </c>
       <c r="E23">
-        <v>10.01595546836517</v>
+        <v>14.32377166416428</v>
       </c>
       <c r="F23">
-        <v>39.95729915911586</v>
+        <v>38.74354959853644</v>
       </c>
       <c r="G23">
-        <v>56.08339154909135</v>
+        <v>45.66270203397099</v>
       </c>
       <c r="H23">
-        <v>14.59892902639874</v>
+        <v>17.4548919191058</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.489685663205842</v>
+        <v>10.63762882299486</v>
       </c>
       <c r="L23">
-        <v>5.38381616893928</v>
+        <v>9.681501649785226</v>
       </c>
       <c r="O23">
-        <v>29.04356026527752</v>
+        <v>29.14715812794682</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>11.8227615493353</v>
+        <v>13.77860974266244</v>
       </c>
       <c r="D24">
-        <v>5.507108609495909</v>
+        <v>8.836717825994858</v>
       </c>
       <c r="E24">
-        <v>9.670159515246615</v>
+        <v>14.31854314040871</v>
       </c>
       <c r="F24">
-        <v>37.33315315784865</v>
+        <v>38.27215305146698</v>
       </c>
       <c r="G24">
-        <v>51.98118927494857</v>
+        <v>44.65743666625356</v>
       </c>
       <c r="H24">
-        <v>13.83617810094349</v>
+        <v>17.37583950907082</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.384178060277155</v>
+        <v>10.65535823393429</v>
       </c>
       <c r="L24">
-        <v>5.387643196932638</v>
+        <v>9.704958964230487</v>
       </c>
       <c r="O24">
-        <v>27.18682923879238</v>
+        <v>28.83662761886628</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>11.03181545060183</v>
+        <v>13.6852569760637</v>
       </c>
       <c r="D25">
-        <v>5.38479242468745</v>
+        <v>8.84962483428802</v>
       </c>
       <c r="E25">
-        <v>9.310765339779325</v>
+        <v>14.32151563862596</v>
       </c>
       <c r="F25">
-        <v>34.42099429569051</v>
+        <v>37.79199649423816</v>
       </c>
       <c r="G25">
-        <v>47.36346315429319</v>
+        <v>43.59311989568452</v>
       </c>
       <c r="H25">
-        <v>13.0125344382574</v>
+        <v>17.30317030201023</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.283283996564418</v>
+        <v>10.67955469390842</v>
       </c>
       <c r="L25">
-        <v>5.399427796186372</v>
+        <v>9.733544246812029</v>
       </c>
       <c r="O25">
-        <v>25.13451963954697</v>
+        <v>28.52335573645837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_94/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.62572784085251</v>
+        <v>10.44200600541746</v>
       </c>
       <c r="D2">
-        <v>8.862755317428553</v>
+        <v>5.302163593210707</v>
       </c>
       <c r="E2">
-        <v>14.33113577209335</v>
+        <v>9.058277617299531</v>
       </c>
       <c r="F2">
-        <v>37.46470187668108</v>
+        <v>32.21316004948926</v>
       </c>
       <c r="G2">
-        <v>42.83247596206232</v>
+        <v>43.8013145991286</v>
       </c>
       <c r="H2">
-        <v>17.26068741337964</v>
+        <v>12.40763325983298</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.70174230392222</v>
+        <v>6.219460977348498</v>
       </c>
       <c r="L2">
-        <v>9.757431744702671</v>
+        <v>5.414321791248668</v>
       </c>
       <c r="O2">
-        <v>28.31248297128687</v>
+        <v>23.58573006642879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13.59124863422232</v>
+        <v>10.0394566888041</v>
       </c>
       <c r="D3">
-        <v>8.873921610170257</v>
+        <v>5.250735264697774</v>
       </c>
       <c r="E3">
-        <v>14.34229924205262</v>
+        <v>8.895016624686129</v>
       </c>
       <c r="F3">
-        <v>37.26013579872049</v>
+        <v>30.68291721625241</v>
       </c>
       <c r="G3">
-        <v>42.33423386470002</v>
+        <v>41.29152894667249</v>
       </c>
       <c r="H3">
-        <v>17.23884865881928</v>
+        <v>12.00030844645387</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.71951035084092</v>
+        <v>6.182425846335082</v>
       </c>
       <c r="L3">
-        <v>9.775400896148057</v>
+        <v>5.428125307863714</v>
       </c>
       <c r="O3">
-        <v>28.18243555185088</v>
+        <v>22.51674678442871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13.57300577819367</v>
+        <v>9.791660634131768</v>
       </c>
       <c r="D4">
-        <v>8.881897797227888</v>
+        <v>5.221388355339969</v>
       </c>
       <c r="E4">
-        <v>14.35144590203804</v>
+        <v>8.798748371888511</v>
       </c>
       <c r="F4">
-        <v>37.14330426916216</v>
+        <v>29.72926528878312</v>
       </c>
       <c r="G4">
-        <v>42.03776962370883</v>
+        <v>39.70638722513657</v>
       </c>
       <c r="H4">
-        <v>17.22888948356966</v>
+        <v>11.75218366033122</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.73176849844094</v>
+        <v>6.162651452003839</v>
       </c>
       <c r="L4">
-        <v>9.787315083032475</v>
+        <v>5.438378606226597</v>
       </c>
       <c r="O4">
-        <v>28.10908694031794</v>
+        <v>21.85274882137724</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.56631267829636</v>
+        <v>9.690655922660921</v>
       </c>
       <c r="D5">
-        <v>8.885430033876764</v>
+        <v>5.209986343063832</v>
       </c>
       <c r="E5">
-        <v>14.35574987205515</v>
+        <v>8.760533188154609</v>
       </c>
       <c r="F5">
-        <v>37.09793849220998</v>
+        <v>29.33759736845388</v>
       </c>
       <c r="G5">
-        <v>41.9194764728114</v>
+        <v>39.04995474315944</v>
       </c>
       <c r="H5">
-        <v>17.22570137271192</v>
+        <v>11.65168182296691</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.73710307738097</v>
+        <v>6.155323858391363</v>
       </c>
       <c r="L5">
-        <v>9.792392179752357</v>
+        <v>5.442996644318039</v>
       </c>
       <c r="O5">
-        <v>28.08085364041314</v>
+        <v>21.58058979174563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>13.56524617732769</v>
+        <v>9.673886740236211</v>
       </c>
       <c r="D6">
-        <v>8.886033589904891</v>
+        <v>5.208126572056845</v>
       </c>
       <c r="E6">
-        <v>14.35649937399978</v>
+        <v>8.75424930631787</v>
       </c>
       <c r="F6">
-        <v>37.09054211389156</v>
+        <v>29.27239313831816</v>
       </c>
       <c r="G6">
-        <v>41.89999007353505</v>
+        <v>38.94034315562691</v>
       </c>
       <c r="H6">
-        <v>17.22522462595816</v>
+        <v>11.63503397686858</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.73800937736525</v>
+        <v>6.154150800513422</v>
       </c>
       <c r="L6">
-        <v>9.793248646511318</v>
+        <v>5.443789816596436</v>
       </c>
       <c r="O6">
-        <v>28.07626619277322</v>
+        <v>21.53531401887561</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13.57291250648725</v>
+        <v>9.790298368833016</v>
       </c>
       <c r="D7">
-        <v>8.88194429261339</v>
+        <v>5.22123233359083</v>
       </c>
       <c r="E7">
-        <v>14.35150161192673</v>
+        <v>8.798228859849717</v>
       </c>
       <c r="F7">
-        <v>37.14268331700421</v>
+        <v>29.72399474560675</v>
       </c>
       <c r="G7">
-        <v>42.03616390314618</v>
+        <v>39.69757582480998</v>
       </c>
       <c r="H7">
-        <v>17.22884296042276</v>
+        <v>11.75082562601639</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.73183906845057</v>
+        <v>6.16254969125657</v>
       </c>
       <c r="L7">
-        <v>9.787382655234669</v>
+        <v>5.438439115676641</v>
       </c>
       <c r="O7">
-        <v>28.10869944022895</v>
+        <v>21.84908426917972</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>13.61323493729683</v>
+        <v>10.30341260651422</v>
       </c>
       <c r="D8">
-        <v>8.866373138898711</v>
+        <v>5.283966137916658</v>
       </c>
       <c r="E8">
-        <v>14.3345093573034</v>
+        <v>9.001169883833894</v>
       </c>
       <c r="F8">
-        <v>37.39237054819648</v>
+        <v>31.68872447563825</v>
       </c>
       <c r="G8">
-        <v>42.65880465962623</v>
+        <v>42.94542421052812</v>
       </c>
       <c r="H8">
-        <v>17.25244325448842</v>
+        <v>12.26684384653305</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.70758896840129</v>
+        <v>6.206066835205791</v>
       </c>
       <c r="L8">
-        <v>9.763444897773969</v>
+        <v>5.418707734371346</v>
       </c>
       <c r="O8">
-        <v>28.26630730001701</v>
+        <v>23.21892129072225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.71529058171047</v>
+        <v>11.29960326946413</v>
       </c>
       <c r="D9">
-        <v>8.844714389750035</v>
+        <v>5.424831762202015</v>
       </c>
       <c r="E9">
-        <v>14.31936133740965</v>
+        <v>9.42997780610035</v>
       </c>
       <c r="F9">
-        <v>37.94978392962692</v>
+        <v>35.41242475208283</v>
       </c>
       <c r="G9">
-        <v>43.94845170283354</v>
+        <v>48.94459097310209</v>
       </c>
       <c r="H9">
-        <v>17.32594814660332</v>
+        <v>13.28992743414708</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.67072554505185</v>
+        <v>6.315603039792725</v>
       </c>
       <c r="L9">
-        <v>9.723475175503429</v>
+        <v>5.394468882158947</v>
       </c>
       <c r="O9">
-        <v>28.62588138305022</v>
+        <v>25.83212658205003</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13.80390930595297</v>
+        <v>12.01987807459304</v>
       </c>
       <c r="D10">
-        <v>8.834197609021</v>
+        <v>5.539402048628124</v>
       </c>
       <c r="E10">
-        <v>14.31928596505051</v>
+        <v>9.762961202311105</v>
       </c>
       <c r="F10">
-        <v>38.39796505636173</v>
+        <v>38.05200816967427</v>
       </c>
       <c r="G10">
-        <v>44.92898426115374</v>
+        <v>53.10979255682044</v>
       </c>
       <c r="H10">
-        <v>17.39631425799097</v>
+        <v>14.04335559915627</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.65014734746838</v>
+        <v>6.411767893384016</v>
       </c>
       <c r="L10">
-        <v>9.698334533188333</v>
+        <v>5.385983561292907</v>
       </c>
       <c r="O10">
-        <v>28.91926276991265</v>
+        <v>27.69482688852072</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>13.84709189678689</v>
+        <v>12.34422056201344</v>
       </c>
       <c r="D11">
-        <v>8.83058104224229</v>
+        <v>5.59397188062795</v>
       </c>
       <c r="E11">
-        <v>14.32164344846577</v>
+        <v>9.918194694137084</v>
       </c>
       <c r="F11">
-        <v>38.6096184240628</v>
+        <v>39.22981632176466</v>
       </c>
       <c r="G11">
-        <v>45.38031206323657</v>
+        <v>54.95084972131568</v>
       </c>
       <c r="H11">
-        <v>17.43181581195756</v>
+        <v>14.38574026381185</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.64219537716486</v>
+        <v>6.459131948429358</v>
       </c>
       <c r="L11">
-        <v>9.687809496925768</v>
+        <v>5.384269087898272</v>
       </c>
       <c r="O11">
-        <v>29.05869084702694</v>
+        <v>28.52820565053149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>13.86384765265519</v>
+        <v>12.46652090672739</v>
       </c>
       <c r="D12">
-        <v>8.829379038811565</v>
+        <v>5.61499239581082</v>
       </c>
       <c r="E12">
-        <v>14.32287906416177</v>
+        <v>9.977509686982094</v>
       </c>
       <c r="F12">
-        <v>38.69082727827905</v>
+        <v>39.67244069631396</v>
       </c>
       <c r="G12">
-        <v>45.55181696055553</v>
+        <v>55.64032182090725</v>
       </c>
       <c r="H12">
-        <v>17.44575508117034</v>
+        <v>14.51530130303743</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.63938650960057</v>
+        <v>6.477605864577677</v>
       </c>
       <c r="L12">
-        <v>9.683954600182055</v>
+        <v>5.383939282378535</v>
       </c>
       <c r="O12">
-        <v>29.11231200333798</v>
+        <v>28.84171073771491</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>13.86022121028751</v>
+        <v>12.44020502806097</v>
       </c>
       <c r="D13">
-        <v>8.829630468129297</v>
+        <v>5.610449347312578</v>
       </c>
       <c r="E13">
-        <v>14.32259772063713</v>
+        <v>9.964711598100239</v>
       </c>
       <c r="F13">
-        <v>38.67329127754634</v>
+        <v>39.57726482599362</v>
       </c>
       <c r="G13">
-        <v>45.51485633245254</v>
+        <v>55.4921725041651</v>
       </c>
       <c r="H13">
-        <v>17.44273107786235</v>
+        <v>14.48740259807948</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.63998245347786</v>
+        <v>6.473602942005942</v>
       </c>
       <c r="L13">
-        <v>9.684779013963956</v>
+        <v>5.383995922886884</v>
       </c>
       <c r="O13">
-        <v>29.10072771395284</v>
+        <v>28.77428474456866</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13.84846237205786</v>
+        <v>12.35429291822722</v>
       </c>
       <c r="D14">
-        <v>8.830478797838284</v>
+        <v>5.595694090525652</v>
       </c>
       <c r="E14">
-        <v>14.32173823791998</v>
+        <v>9.92306395801573</v>
       </c>
       <c r="F14">
-        <v>38.61627861159096</v>
+        <v>39.26629939629626</v>
       </c>
       <c r="G14">
-        <v>45.39441083596205</v>
+        <v>55.0077267521229</v>
       </c>
       <c r="H14">
-        <v>17.43295271075668</v>
+        <v>14.39640135678567</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.64196023573304</v>
+        <v>6.460640915762081</v>
       </c>
       <c r="L14">
-        <v>9.687489734858824</v>
+        <v>5.384235487426716</v>
       </c>
       <c r="O14">
-        <v>29.06308601017928</v>
+        <v>28.55403974618518</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13.84131200150168</v>
+        <v>12.30160039941547</v>
       </c>
       <c r="D15">
-        <v>8.83102022725474</v>
+        <v>5.586702566262047</v>
       </c>
       <c r="E15">
-        <v>14.32125640013919</v>
+        <v>9.897622598801346</v>
       </c>
       <c r="F15">
-        <v>38.58149305073956</v>
+        <v>39.07538179447307</v>
       </c>
       <c r="G15">
-        <v>45.32070743187458</v>
+        <v>54.70998991468569</v>
       </c>
       <c r="H15">
-        <v>17.4270275175376</v>
+        <v>14.34064748964305</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.64319803084871</v>
+        <v>6.452771939269589</v>
       </c>
       <c r="L15">
-        <v>9.689167140311811</v>
+        <v>5.384424164042303</v>
       </c>
       <c r="O15">
-        <v>29.04013545344816</v>
+        <v>28.41886163489962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.80114419290252</v>
+        <v>11.99861061184582</v>
       </c>
       <c r="D16">
-        <v>8.834457422766041</v>
+        <v>5.535885398849419</v>
       </c>
       <c r="E16">
-        <v>14.31917994096706</v>
+        <v>9.752891079600083</v>
       </c>
       <c r="F16">
-        <v>38.38428456588805</v>
+        <v>37.9745648637336</v>
       </c>
       <c r="G16">
-        <v>44.89958124957404</v>
+        <v>52.98839444879643</v>
       </c>
       <c r="H16">
-        <v>17.39406386747872</v>
+        <v>14.02096884797144</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.65069536131443</v>
+        <v>6.408746849543016</v>
       </c>
       <c r="L16">
-        <v>9.699040679950883</v>
+        <v>5.386139693740079</v>
       </c>
       <c r="O16">
-        <v>28.91026791198709</v>
+        <v>27.64007547973868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>13.77723115553592</v>
+        <v>11.81184981937832</v>
       </c>
       <c r="D17">
-        <v>8.836864812886517</v>
+        <v>5.505340878539718</v>
       </c>
       <c r="E17">
-        <v>14.31851799987657</v>
+        <v>9.665057705300484</v>
       </c>
       <c r="F17">
-        <v>38.26525429078877</v>
+        <v>37.29328752867151</v>
       </c>
       <c r="G17">
-        <v>44.64247014623285</v>
+        <v>51.91848296403562</v>
       </c>
       <c r="H17">
-        <v>17.37473160250477</v>
+        <v>13.82473024311432</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.6556554701805</v>
+        <v>6.382677945585474</v>
       </c>
       <c r="L17">
-        <v>9.705330983097641</v>
+        <v>5.387749149539152</v>
       </c>
       <c r="O17">
-        <v>28.83210214360567</v>
+        <v>27.15867206918444</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13.763747689522</v>
+        <v>11.70411951336525</v>
       </c>
       <c r="D18">
-        <v>8.838359402522299</v>
+        <v>5.48800294921857</v>
       </c>
       <c r="E18">
-        <v>14.31836246696413</v>
+        <v>9.614892258087121</v>
       </c>
       <c r="F18">
-        <v>38.19752649068062</v>
+        <v>36.89927508883957</v>
       </c>
       <c r="G18">
-        <v>44.4950931443814</v>
+        <v>51.29803441858335</v>
       </c>
       <c r="H18">
-        <v>17.36394127360017</v>
+        <v>13.71182707648429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.65864104749174</v>
+        <v>6.368023232423986</v>
       </c>
       <c r="L18">
-        <v>9.709034822654331</v>
+        <v>5.388876117010748</v>
       </c>
       <c r="O18">
-        <v>28.78770716343045</v>
+        <v>26.88046719356531</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.75922917870525</v>
+        <v>11.66759222402447</v>
       </c>
       <c r="D19">
-        <v>8.838884335232633</v>
+        <v>5.482172109640112</v>
       </c>
       <c r="E19">
-        <v>14.31834851326142</v>
+        <v>9.597968240011364</v>
       </c>
       <c r="F19">
-        <v>38.17472302161068</v>
+        <v>36.76550207451029</v>
       </c>
       <c r="G19">
-        <v>44.44528578053129</v>
+        <v>51.08709223181103</v>
       </c>
       <c r="H19">
-        <v>17.36034456122506</v>
+        <v>13.67359609812292</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.65967470367349</v>
+        <v>6.363119170126988</v>
       </c>
       <c r="L19">
-        <v>9.710303630838956</v>
+        <v>5.389291934568855</v>
       </c>
       <c r="O19">
-        <v>28.77277368737875</v>
+        <v>26.78604896259042</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>13.77974878931563</v>
+        <v>11.83176333505638</v>
       </c>
       <c r="D20">
-        <v>8.836597168198072</v>
+        <v>5.508568518261706</v>
       </c>
       <c r="E20">
-        <v>14.31856516455171</v>
+        <v>9.674371160465958</v>
       </c>
       <c r="F20">
-        <v>38.27784957978065</v>
+        <v>37.36603503224242</v>
       </c>
       <c r="G20">
-        <v>44.66978882063506</v>
+        <v>52.03290105174819</v>
       </c>
       <c r="H20">
-        <v>17.37675554200241</v>
+        <v>13.8456238419016</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.65511373079685</v>
+        <v>6.385417769417893</v>
       </c>
       <c r="L20">
-        <v>9.704652489920079</v>
+        <v>5.387556915072106</v>
       </c>
       <c r="O20">
-        <v>28.8403649125191</v>
+        <v>27.21005496975103</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>13.85190535474515</v>
+        <v>12.37954179354093</v>
       </c>
       <c r="D21">
-        <v>8.830225079856739</v>
+        <v>5.600018369598816</v>
       </c>
       <c r="E21">
-        <v>14.32198139212292</v>
+        <v>9.935282504379449</v>
       </c>
       <c r="F21">
-        <v>38.6329963051614</v>
+        <v>39.35772970955788</v>
       </c>
       <c r="G21">
-        <v>45.42977368428577</v>
+        <v>55.15022839242311</v>
       </c>
       <c r="H21">
-        <v>17.43581145843749</v>
+        <v>14.42313338012282</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.6413738230912</v>
+        <v>6.464433422220391</v>
       </c>
       <c r="L21">
-        <v>9.686689986092652</v>
+        <v>5.384156361383882</v>
       </c>
       <c r="O21">
-        <v>29.07412025053699</v>
+        <v>28.61878771164456</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>13.90141074261738</v>
+        <v>12.73450171980911</v>
       </c>
       <c r="D22">
-        <v>8.827036734603782</v>
+        <v>5.661864128917787</v>
       </c>
       <c r="E22">
-        <v>14.32621210263082</v>
+        <v>10.10890018198323</v>
       </c>
       <c r="F22">
-        <v>38.87125753551988</v>
+        <v>40.63969084771698</v>
       </c>
       <c r="G22">
-        <v>45.92987274775989</v>
+        <v>57.14280196234015</v>
       </c>
       <c r="H22">
-        <v>17.47729322848912</v>
+        <v>14.80002367234218</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.63357343013889</v>
+        <v>6.519220928070004</v>
       </c>
       <c r="L22">
-        <v>9.67571213245432</v>
+        <v>5.383801441176626</v>
       </c>
       <c r="O22">
-        <v>29.23167117122135</v>
+        <v>29.52737166985462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>13.87477723634493</v>
+        <v>12.54534145024311</v>
       </c>
       <c r="D23">
-        <v>8.828649230142746</v>
+        <v>5.62866431787596</v>
       </c>
       <c r="E23">
-        <v>14.32377166416428</v>
+        <v>10.01595546836517</v>
       </c>
       <c r="F23">
-        <v>38.74354959853644</v>
+        <v>39.95729915911586</v>
       </c>
       <c r="G23">
-        <v>45.66270203397099</v>
+        <v>56.08339154909144</v>
       </c>
       <c r="H23">
-        <v>17.4548919191058</v>
+        <v>14.59892902639871</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.63762882299486</v>
+        <v>6.489685663205829</v>
       </c>
       <c r="L23">
-        <v>9.681501649785226</v>
+        <v>5.383816168939256</v>
       </c>
       <c r="O23">
-        <v>29.14715812794682</v>
+        <v>29.04356026527752</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>13.77860974266244</v>
+        <v>11.82276154933532</v>
       </c>
       <c r="D24">
-        <v>8.836717825994858</v>
+        <v>5.507108609496</v>
       </c>
       <c r="E24">
-        <v>14.31854314040871</v>
+        <v>9.670159515246585</v>
       </c>
       <c r="F24">
-        <v>38.27215305146698</v>
+        <v>37.33315315784864</v>
       </c>
       <c r="G24">
-        <v>44.65743666625356</v>
+        <v>51.98118927494853</v>
       </c>
       <c r="H24">
-        <v>17.37583950907082</v>
+        <v>13.83617810094351</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.65535823393429</v>
+        <v>6.384178060277181</v>
       </c>
       <c r="L24">
-        <v>9.704958964230487</v>
+        <v>5.387643196932639</v>
       </c>
       <c r="O24">
-        <v>28.83662761886628</v>
+        <v>27.18682923879239</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.6852569760637</v>
+        <v>11.0318154506018</v>
       </c>
       <c r="D25">
-        <v>8.84962483428802</v>
+        <v>5.384792424687481</v>
       </c>
       <c r="E25">
-        <v>14.32151563862596</v>
+        <v>9.31076533977938</v>
       </c>
       <c r="F25">
-        <v>37.79199649423816</v>
+        <v>34.42099429569056</v>
       </c>
       <c r="G25">
-        <v>43.59311989568452</v>
+        <v>47.36346315429319</v>
       </c>
       <c r="H25">
-        <v>17.30317030201023</v>
+        <v>13.01253443825745</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.67955469390842</v>
+        <v>6.283283996564452</v>
       </c>
       <c r="L25">
-        <v>9.733544246812029</v>
+        <v>5.399427796186359</v>
       </c>
       <c r="O25">
-        <v>28.52335573645837</v>
+        <v>25.13451963954703</v>
       </c>
     </row>
   </sheetData>
